--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\work\apprentice\term2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58D4AAC-7ED9-4DEE-97BC-EAB02E9DEBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4A84A6-6A07-4667-83B7-C86FFD5212D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル名" sheetId="2" r:id="rId1"/>
-    <sheet name="放送情報" sheetId="1" r:id="rId2"/>
-    <sheet name="エピソードマスタ" sheetId="3" r:id="rId3"/>
-    <sheet name="シーズンマスタ" sheetId="4" r:id="rId4"/>
-    <sheet name="番組マスタ" sheetId="5" r:id="rId5"/>
-    <sheet name="チャンネルマスタ" sheetId="6" r:id="rId6"/>
-    <sheet name="番組ジャンル関連" sheetId="7" r:id="rId7"/>
-    <sheet name="視聴情報" sheetId="8" r:id="rId8"/>
+    <sheet name="1.番組マスタ" sheetId="5" r:id="rId2"/>
+    <sheet name="2.ジャンルマスタ" sheetId="9" r:id="rId3"/>
+    <sheet name="3.番組ジャンル関連" sheetId="7" r:id="rId4"/>
+    <sheet name="4.シーズンマスタ" sheetId="4" r:id="rId5"/>
+    <sheet name="5.エピソードマスタ" sheetId="3" r:id="rId6"/>
+    <sheet name="6.放送マスタ" sheetId="1" r:id="rId7"/>
+    <sheet name="7.チャンネルマスタ" sheetId="6" r:id="rId8"/>
+    <sheet name="8.放送チャンネル関連" sheetId="10" r:id="rId9"/>
+    <sheet name="9.視聴情報" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <t>broadcast_id</t>
   </si>
@@ -46,9 +48,6 @@
     <t>ch_id</t>
   </si>
   <si>
-    <t>ch_master.ch_id</t>
-  </si>
-  <si>
     <t>episode_id</t>
   </si>
   <si>
@@ -116,14 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>放送情報</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>broadcast</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エピソードマスタ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,12 +139,6 @@
   <si>
     <t>チャンネルマスタ</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ch_master</t>
-  </si>
-  <si>
-    <t>show_genre</t>
   </si>
   <si>
     <t>視聴情報</t>
@@ -208,6 +193,75 @@
     <rPh sb="0" eb="1">
       <t>カタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンルマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放送マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ホウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放送チャンネル関連</t>
+    <rPh sb="0" eb="2">
+      <t>ホウソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>broadcast_sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show_genre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>broadcast_master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch_master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>broadcast_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>broadcast_master.broadcast_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch_master.ch_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -279,11 +333,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -564,113 +619,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90EF5AD-BDCF-4BEB-9D23-D7FE0E33706A}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="2.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B11" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="4" customFormat="1">
+      <c r="B10" s="1">
+        <f>ROW()-2</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91762C26-3110-4332-961F-29AEEEB88134}">
+  <dimension ref="B2:G5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B9" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -679,43 +848,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27149594-942F-45C0-92E7-E202B826CE7D}">
+  <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -724,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -737,19 +903,17 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B7" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7">
@@ -758,46 +922,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -806,8 +938,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5850548-CED9-4313-94E8-82D853E6F7A8}">
-  <dimension ref="B2:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839C4D13-1B7B-4D95-AA21-AD35E412D46D}">
+  <dimension ref="B2:G4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -815,32 +947,32 @@
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.4140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -849,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -862,121 +994,18 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">ROW()-2</f>
+        <f t="shared" ref="B4" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -985,6 +1014,87 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D42A96D-DF91-4BB2-94E1-B1F502A7BFBE}">
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B562D4-33A1-4F2A-B54D-AA5AD9A4C3AF}">
   <dimension ref="B2:G4"/>
   <sheetViews>
@@ -1003,22 +1113,22 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1027,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -1044,106 +1154,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27149594-942F-45C0-92E7-E202B826CE7D}">
-  <dimension ref="B2:G5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1152,6 +1172,280 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5850548-CED9-4313-94E8-82D853E6F7A8}">
+  <dimension ref="B2:G12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B11" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E5EA4-7DF9-45B4-98BA-DCE47D480A60}">
   <dimension ref="B2:G4"/>
   <sheetViews>
@@ -1170,22 +1464,22 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1211,10 +1505,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1226,89 +1520,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D42A96D-DF91-4BB2-94E1-B1F502A7BFBE}">
-  <dimension ref="B2:G4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91762C26-3110-4332-961F-29AEEEB88134}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E2060B-9A70-4A36-9088-03B5CD40036C}">
   <dimension ref="B2:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -1317,31 +1530,32 @@
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.9140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1350,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -1358,7 +1572,9 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7">
@@ -1367,14 +1583,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1384,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>

--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\work\apprentice\term2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4A84A6-6A07-4667-83B7-C86FFD5212D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D086CF-D473-4876-9F6C-E0617FDD821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル名" sheetId="2" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
-  <si>
-    <t>broadcast_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="84">
   <si>
     <t>int</t>
   </si>
@@ -72,12 +69,6 @@
     <t>episode_name</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>episode_detail</t>
-  </si>
-  <si>
     <t>episode_length</t>
   </si>
   <si>
@@ -99,27 +90,15 @@
     <t>ch_name</t>
   </si>
   <si>
-    <t>genre_id</t>
-  </si>
-  <si>
     <t>genre_master.genre_id</t>
   </si>
   <si>
-    <t>view_id</t>
-  </si>
-  <si>
-    <t>view_cnt</t>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>エピソードマスタ</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>episode_master</t>
   </si>
   <si>
     <t>シーズンマスタ</t>
@@ -167,13 +146,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="3">
-      <t>コウモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -217,10 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>broadcast_sh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>show_genre</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -241,10 +209,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ch_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -262,6 +226,203 @@
   </si>
   <si>
     <t>ch_master.ch_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番組ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto_increment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番組名</t>
+    <rPh sb="0" eb="3">
+      <t>バングミメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番組詳細</t>
+    <rPh sb="0" eb="4">
+      <t>バングミショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>season_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>season_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーズンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番組ID</t>
+    <rPh sb="0" eb="2">
+      <t>バングミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーズン名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソードID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソード名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソード詳細</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソード時間</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エピソード公開日</t>
+    <rPh sb="5" eb="8">
+      <t>コウカイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放送ID</t>
+    <rPh sb="0" eb="2">
+      <t>ホウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放送開始</t>
+    <rPh sb="0" eb="2">
+      <t>ホウソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放送修了</t>
+    <rPh sb="0" eb="2">
+      <t>ホウソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンネルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンネル名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴ID</t>
+    <rPh sb="0" eb="2">
+      <t>シチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴数</t>
+    <rPh sb="0" eb="2">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>episode_master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>episode_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>episode_detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>broadcast_ch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view_cnt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -333,12 +494,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -621,7 +781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90EF5AD-BDCF-4BEB-9D23-D7FE0E33706A}">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -632,13 +794,13 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -647,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -659,10 +821,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -671,10 +833,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -683,10 +845,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -695,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -707,10 +869,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -719,22 +881,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" s="4" customFormat="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="1">
         <f>ROW()-2</f>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -743,10 +905,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +919,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91762C26-3110-4332-961F-29AEEEB88134}">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B2:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -765,171 +927,229 @@
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27149594-942F-45C0-92E7-E202B826CE7D}">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B2:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="G4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -939,73 +1159,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839C4D13-1B7B-4D95-AA21-AD35E412D46D}">
-  <dimension ref="B2:G4"/>
+  <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.9140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1">
         <f t="shared" ref="B4" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1015,7 +1259,108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D42A96D-DF91-4BB2-94E1-B1F502A7BFBE}">
-  <dimension ref="B2:G4"/>
+  <dimension ref="B2:I4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B562D4-33A1-4F2A-B54D-AA5AD9A4C3AF}">
+  <dimension ref="B2:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1024,146 +1369,109 @@
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="3"/>
+    <col min="4" max="4" width="14.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B562D4-33A1-4F2A-B54D-AA5AD9A4C3AF}">
-  <dimension ref="B2:G4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1173,178 +1481,175 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5850548-CED9-4313-94E8-82D853E6F7A8}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B8" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1354,265 +1659,349 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B2:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E5EA4-7DF9-45B4-98BA-DCE47D480A60}">
-  <dimension ref="B2:G4"/>
+  <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="11.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1">
         <f t="shared" ref="B4" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E2060B-9A70-4A36-9088-03B5CD40036C}">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B2:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="3.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.9140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.9140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="3"/>
+    <col min="3" max="3" width="11.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B5" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\work\apprentice\term2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D086CF-D473-4876-9F6C-E0617FDD821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17C4B0-6F01-44EA-96E8-999D7E820169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル名" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="3.番組ジャンル関連" sheetId="7" r:id="rId4"/>
     <sheet name="4.シーズンマスタ" sheetId="4" r:id="rId5"/>
     <sheet name="5.エピソードマスタ" sheetId="3" r:id="rId6"/>
-    <sheet name="6.放送マスタ" sheetId="1" r:id="rId7"/>
+    <sheet name="6.時間マスタ" sheetId="1" r:id="rId7"/>
     <sheet name="7.チャンネルマスタ" sheetId="6" r:id="rId8"/>
-    <sheet name="8.放送チャンネル関連" sheetId="10" r:id="rId9"/>
+    <sheet name="8.時間チャンネル関連" sheetId="10" r:id="rId9"/>
     <sheet name="9.視聴情報" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -51,13 +51,7 @@
     <t>episode_master.episode_id</t>
   </si>
   <si>
-    <t>broadcast_start</t>
-  </si>
-  <si>
     <t>datetime</t>
-  </si>
-  <si>
-    <t>broadcast_end</t>
   </si>
   <si>
     <t>season_id</t>
@@ -172,23 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>放送マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>ホウソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>放送チャンネル関連</t>
-    <rPh sb="0" eb="2">
-      <t>ホウソウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンレン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>show_genre</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -197,10 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>broadcast_master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>genre_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -214,14 +187,6 @@
   </si>
   <si>
     <t>ch_master</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>broadcast_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>broadcast_master.broadcast_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -414,15 +379,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>broadcast_ch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>view_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>view_cnt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>broadcast_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>broadcast_end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間チャンネル関連</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_ch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_master.time_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -781,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90EF5AD-BDCF-4BEB-9D23-D7FE0E33706A}">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -794,13 +796,13 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -809,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -821,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -833,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -845,10 +847,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -857,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -869,10 +871,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -881,10 +883,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -893,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>81</v>
@@ -905,10 +907,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -938,28 +940,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -968,10 +970,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -984,7 +986,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -993,10 +995,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1016,10 +1018,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
@@ -1043,7 +1045,7 @@
   <dimension ref="B2:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1062,28 +1064,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1092,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1108,7 +1110,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1117,17 +1119,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1138,13 +1140,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1181,28 +1183,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1211,10 +1213,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1227,7 +1229,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1236,13 +1238,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1259,9 +1261,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D42A96D-DF91-4BB2-94E1-B1F502A7BFBE}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1278,28 +1285,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1308,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1323,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -1333,10 +1340,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1348,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1380,28 +1387,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1410,10 +1417,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1426,7 +1433,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1435,10 +1442,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1448,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1458,13 +1465,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -1483,9 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5850548-CED9-4313-94E8-82D853E6F7A8}">
   <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1503,28 +1508,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1533,10 +1538,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1549,7 +1554,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1558,10 +1563,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1571,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1581,13 +1586,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1600,13 +1605,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1619,10 +1624,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -1638,13 +1643,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1662,7 +1667,7 @@
   <dimension ref="B2:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1681,28 +1686,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1711,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1727,7 +1732,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1736,13 +1741,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1757,13 +1762,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -1803,28 +1808,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1833,13 +1838,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -1849,7 +1854,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1858,13 +1863,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1882,11 +1887,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E2060B-9A70-4A36-9088-03B5CD40036C}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="B2:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1904,28 +1910,28 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1934,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -1949,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -1959,10 +1965,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -1974,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1984,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
